--- a/data/trans_camb/P38A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,86</t>
+          <t>-7,67; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,78</t>
+          <t>-6,82; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,71</t>
+          <t>-1,91; 6,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,76</t>
+          <t>-5,71; 3,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,51</t>
+          <t>-3,96; 2,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,06</t>
+          <t>-5,02; 1,09</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,96</t>
+          <t>-8,24; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,98</t>
+          <t>-7,36; 2,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,47</t>
+          <t>-2,01; 6,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,08</t>
+          <t>-6,09; 3,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,68</t>
+          <t>-4,28; 2,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,17</t>
+          <t>-5,39; 1,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 1,71</t>
+          <t>-6,54; 2,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,18</t>
+          <t>-5,21; 3,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,1</t>
+          <t>-7,89; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; -0,21</t>
+          <t>-8,37; -0,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,22</t>
+          <t>-6,1; -0,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,3</t>
+          <t>-5,78; 0,31</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 1,91</t>
+          <t>-7,17; 2,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,53</t>
+          <t>-5,64; 3,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,11</t>
+          <t>-8,24; 0,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,22</t>
+          <t>-8,75; -0,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,24</t>
+          <t>-6,59; -0,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 0,31</t>
+          <t>-6,21; 0,32</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,06</t>
+          <t>-5,37; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-66,37; 0,91</t>
+          <t>-70,57; 0,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,71</t>
+          <t>-4,41; 6,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,67</t>
+          <t>-2,51; 6,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,32</t>
+          <t>-4,14; 1,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 1,54</t>
+          <t>-63,65; 1,43</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,34</t>
+          <t>-5,92; 2,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,16; 1,03</t>
+          <t>-77,35; 1,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 7,59</t>
+          <t>-4,73; 7,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,62</t>
+          <t>-2,69; 7,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,56</t>
+          <t>-4,55; 2,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 1,74</t>
+          <t>-70,25; 1,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,93</t>
+          <t>-3,7; 1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 0,86</t>
+          <t>-6,32; 0,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,41</t>
+          <t>-2,74; 3,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,9</t>
+          <t>0,61; 8,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,79</t>
+          <t>-2,59; 1,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,69</t>
+          <t>-1,87; 4,38</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,27</t>
+          <t>-4,15; 2,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 0,96</t>
+          <t>-7,07; 0,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,88</t>
+          <t>-3,05; 3,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 10,32</t>
+          <t>0,68; 10,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,04</t>
+          <t>-2,9; 2,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,34</t>
+          <t>-2,09; 4,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,97</t>
+          <t>-5,86; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,07</t>
+          <t>-3,37; 6,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,11</t>
+          <t>-6,0; -0,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,5; -0,4</t>
+          <t>-31,64; -0,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,49</t>
+          <t>-4,93; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 0,89</t>
+          <t>-19,35; 0,57</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,96</t>
+          <t>-6,87; 4,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,53</t>
+          <t>-3,93; 7,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,12</t>
+          <t>-6,36; -0,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,95; -0,43</t>
+          <t>-34,0; -0,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,57</t>
+          <t>-5,42; 0,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 0,98</t>
+          <t>-21,69; 0,64</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 11,65</t>
+          <t>-5,47; 12,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 6,0</t>
+          <t>-19,58; 5,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,28</t>
+          <t>-0,3; 5,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,0</t>
+          <t>-5,44; 1,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,12</t>
+          <t>-0,76; 5,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -0,48</t>
+          <t>-8,86; -0,09</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 25,32</t>
+          <t>-9,94; 26,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 12,79</t>
+          <t>-36,41; 12,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,28</t>
+          <t>-0,35; 6,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,37</t>
+          <t>-6,27; 2,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,63</t>
+          <t>-0,93; 6,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -0,61</t>
+          <t>-11,01; -0,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,13</t>
+          <t>-3,36; 0,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -0,94</t>
+          <t>-26,32; -0,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,5</t>
+          <t>-1,36; 1,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 1,25</t>
+          <t>-7,75; 1,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,39</t>
+          <t>-1,8; 0,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -0,44</t>
+          <t>-16,68; -0,57</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,17</t>
+          <t>-3,91; 0,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -1,1</t>
+          <t>-30,63; -1,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,69</t>
+          <t>-1,51; 1,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 1,41</t>
+          <t>-8,58; 1,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,46</t>
+          <t>-2,04; 0,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -0,5</t>
+          <t>-19,24; -0,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
